--- a/artfynd/Käringberget SV artfynd.xlsx
+++ b/artfynd/Käringberget SV artfynd.xlsx
@@ -1689,32 +1689,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103618179</v>
+        <v>103618175</v>
       </c>
       <c r="B12" t="n">
-        <v>91263</v>
+        <v>92539</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>4365</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>676934</v>
+        <v>677007</v>
       </c>
       <c r="R12" t="n">
-        <v>7111130</v>
+        <v>7111327</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1888,32 +1888,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103618175</v>
+        <v>103618179</v>
       </c>
       <c r="B14" t="n">
-        <v>92539</v>
+        <v>91263</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4365</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>677007</v>
+        <v>676934</v>
       </c>
       <c r="R14" t="n">
-        <v>7111327</v>
+        <v>7111130</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>tallåga</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2688,32 +2688,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103618188</v>
+        <v>103618193</v>
       </c>
       <c r="B22" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>676971</v>
+        <v>676979</v>
       </c>
       <c r="R22" t="n">
-        <v>7111054</v>
+        <v>7111017</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2769,6 +2769,11 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2785,32 +2790,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103618193</v>
+        <v>103618186</v>
       </c>
       <c r="B23" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2820,10 +2825,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>676979</v>
+        <v>676959</v>
       </c>
       <c r="R23" t="n">
-        <v>7111017</v>
+        <v>7111121</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2866,11 +2871,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103618186</v>
+        <v>103618188</v>
       </c>
       <c r="B24" t="n">
         <v>78980</v>
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>676959</v>
+        <v>676971</v>
       </c>
       <c r="R24" t="n">
-        <v>7111121</v>
+        <v>7111054</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2984,45 +2984,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>84766646</v>
+        <v>103618159</v>
       </c>
       <c r="B25" t="n">
-        <v>79987</v>
+        <v>78980</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Yttersjön, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>676015</v>
+        <v>677167</v>
       </c>
       <c r="R25" t="n">
-        <v>7111072</v>
+        <v>7111508</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3049,12 +3049,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3069,57 +3069,57 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103618159</v>
+        <v>84766646</v>
       </c>
       <c r="B26" t="n">
-        <v>78980</v>
+        <v>79987</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Yttersjön, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>677167</v>
+        <v>676015</v>
       </c>
       <c r="R26" t="n">
-        <v>7111508</v>
+        <v>7111072</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,12 +3166,12 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
@@ -3469,10 +3469,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>103618170</v>
+        <v>112605592</v>
       </c>
       <c r="B30" t="n">
-        <v>78980</v>
+        <v>92571</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3480,34 +3480,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>677071</v>
+        <v>676909</v>
       </c>
       <c r="R30" t="n">
-        <v>7111398</v>
+        <v>7111461</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3534,12 +3534,17 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3554,22 +3559,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>103618189</v>
+        <v>103618016</v>
       </c>
       <c r="B31" t="n">
-        <v>78980</v>
+        <v>57657</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3577,34 +3582,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>676976</v>
+        <v>677102</v>
       </c>
       <c r="R31" t="n">
-        <v>7111034</v>
+        <v>7110869</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3639,6 +3649,11 @@
           <t>2022-09-17</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -3647,6 +3662,11 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -3663,10 +3683,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>103618016</v>
+        <v>103618201</v>
       </c>
       <c r="B32" t="n">
-        <v>57657</v>
+        <v>78647</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3674,39 +3694,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>677102</v>
+        <v>677035</v>
       </c>
       <c r="R32" t="n">
-        <v>7110869</v>
+        <v>7110865</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3741,11 +3756,6 @@
           <t>2022-09-17</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -3757,7 +3767,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -3775,10 +3785,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>103618201</v>
+        <v>103618170</v>
       </c>
       <c r="B33" t="n">
-        <v>78647</v>
+        <v>78980</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3786,21 +3796,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3810,10 +3820,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>677035</v>
+        <v>677071</v>
       </c>
       <c r="R33" t="n">
-        <v>7110865</v>
+        <v>7111398</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3856,11 +3866,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -3877,10 +3882,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112605592</v>
+        <v>103618189</v>
       </c>
       <c r="B34" t="n">
-        <v>92571</v>
+        <v>78980</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3888,34 +3893,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>676909</v>
+        <v>676976</v>
       </c>
       <c r="R34" t="n">
-        <v>7111461</v>
+        <v>7111034</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3942,17 +3947,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -3967,12 +3967,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4372,32 +4372,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>103618176</v>
+        <v>103618020</v>
       </c>
       <c r="B39" t="n">
-        <v>78980</v>
+        <v>92535</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>676934</v>
+        <v>677175</v>
       </c>
       <c r="R39" t="n">
-        <v>7111243</v>
+        <v>7110865</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4469,32 +4469,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>103618020</v>
+        <v>103618176</v>
       </c>
       <c r="B40" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>677175</v>
+        <v>676934</v>
       </c>
       <c r="R40" t="n">
-        <v>7110865</v>
+        <v>7111243</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4663,32 +4663,32 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>103618197</v>
+        <v>103618169</v>
       </c>
       <c r="B42" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>676997</v>
+        <v>677073</v>
       </c>
       <c r="R42" t="n">
-        <v>7110951</v>
+        <v>7111423</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4760,32 +4760,32 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>103618169</v>
+        <v>103618197</v>
       </c>
       <c r="B43" t="n">
-        <v>78980</v>
+        <v>92535</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4795,10 +4795,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>677073</v>
+        <v>676997</v>
       </c>
       <c r="R43" t="n">
-        <v>7111423</v>
+        <v>7110951</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>103618160</v>
+        <v>112605593</v>
       </c>
       <c r="B47" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5211,34 +5211,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>677135</v>
+        <v>676808</v>
       </c>
       <c r="R47" t="n">
-        <v>7111507</v>
+        <v>7111580</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5265,12 +5265,17 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5285,57 +5290,57 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>103618187</v>
+        <v>112605591</v>
       </c>
       <c r="B48" t="n">
-        <v>78980</v>
+        <v>92547</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>676978</v>
+        <v>676654</v>
       </c>
       <c r="R48" t="n">
-        <v>7111086</v>
+        <v>7111614</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5362,12 +5367,17 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5382,22 +5392,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>103618164</v>
+        <v>103618198</v>
       </c>
       <c r="B49" t="n">
-        <v>78980</v>
+        <v>90283</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5405,21 +5415,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5429,10 +5439,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>677114</v>
+        <v>677013</v>
       </c>
       <c r="R49" t="n">
-        <v>7111487</v>
+        <v>7110889</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5475,6 +5485,11 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -5598,10 +5613,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>103618198</v>
+        <v>103618160</v>
       </c>
       <c r="B51" t="n">
-        <v>90283</v>
+        <v>78980</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5609,21 +5624,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5633,10 +5648,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>677013</v>
+        <v>677135</v>
       </c>
       <c r="R51" t="n">
-        <v>7110889</v>
+        <v>7111507</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5679,11 +5694,6 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -5700,45 +5710,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112605591</v>
+        <v>103618187</v>
       </c>
       <c r="B52" t="n">
-        <v>92547</v>
+        <v>78980</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>676654</v>
+        <v>676978</v>
       </c>
       <c r="R52" t="n">
-        <v>7111614</v>
+        <v>7111086</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5765,17 +5775,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5790,22 +5795,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112605593</v>
+        <v>103618164</v>
       </c>
       <c r="B53" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5813,34 +5818,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>676808</v>
+        <v>677114</v>
       </c>
       <c r="R53" t="n">
-        <v>7111580</v>
+        <v>7111487</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5867,17 +5872,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5892,12 +5892,12 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>

--- a/artfynd/Käringberget SV artfynd.xlsx
+++ b/artfynd/Käringberget SV artfynd.xlsx
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103618191</v>
+        <v>103618172</v>
       </c>
       <c r="B2" t="n">
-        <v>91628</v>
+        <v>78738</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>298</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Laxgröppa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Byssomerulius albostramineus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Torrend) Hjortstam</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>676991</v>
+        <v>677055</v>
       </c>
       <c r="R2" t="n">
-        <v>7111031</v>
+        <v>7111386</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>tallåga</t>
+          <t>kolad stubbe</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -782,32 +782,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103618172</v>
+        <v>103618191</v>
       </c>
       <c r="B3" t="n">
-        <v>78738</v>
+        <v>91628</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Laxgröppa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Byssomerulius albostramineus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Torrend) Hjortstam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>677055</v>
+        <v>676991</v>
       </c>
       <c r="R3" t="n">
-        <v>7111386</v>
+        <v>7111031</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>kolad stubbe</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84766648</v>
+        <v>119796272</v>
       </c>
       <c r="B6" t="n">
-        <v>79516</v>
+        <v>78739</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,34 +1099,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1352</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Småflikig brosklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramalina sinensis</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Jatta</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Yttersjön, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676012</v>
+        <v>676855</v>
       </c>
       <c r="R6" t="n">
-        <v>7111071</v>
+        <v>7111501</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1153,12 +1157,17 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1173,22 +1182,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103618157</v>
+        <v>84766648</v>
       </c>
       <c r="B7" t="n">
-        <v>80083</v>
+        <v>79516</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,34 +1205,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1352</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Småflikig brosklav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramalina sinensis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Jatta</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Yttersjön, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>677176</v>
+        <v>676012</v>
       </c>
       <c r="R7" t="n">
-        <v>7111509</v>
+        <v>7111071</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1250,12 +1259,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1270,22 +1279,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103618161</v>
+        <v>103618195</v>
       </c>
       <c r="B8" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1293,21 +1302,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1317,10 +1326,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>677129</v>
+        <v>676992</v>
       </c>
       <c r="R8" t="n">
-        <v>7111504</v>
+        <v>7110988</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1363,11 +1372,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1384,10 +1388,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103618195</v>
+        <v>103618161</v>
       </c>
       <c r="B9" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1395,21 +1399,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1419,10 +1423,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>676992</v>
+        <v>677129</v>
       </c>
       <c r="R9" t="n">
-        <v>7110988</v>
+        <v>7111504</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1465,6 +1469,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1481,10 +1490,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119796272</v>
+        <v>103618157</v>
       </c>
       <c r="B10" t="n">
-        <v>78739</v>
+        <v>80083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1492,38 +1501,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>676855</v>
+        <v>677176</v>
       </c>
       <c r="R10" t="n">
-        <v>7111501</v>
+        <v>7111509</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1550,17 +1555,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1575,12 +1575,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1689,32 +1689,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103618175</v>
+        <v>103618196</v>
       </c>
       <c r="B12" t="n">
-        <v>92539</v>
+        <v>78980</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4365</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>677007</v>
+        <v>676996</v>
       </c>
       <c r="R12" t="n">
-        <v>7111327</v>
+        <v>7110957</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1770,11 +1770,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1791,10 +1786,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>103618196</v>
+        <v>103618179</v>
       </c>
       <c r="B13" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,21 +1797,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1826,10 +1821,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>676996</v>
+        <v>676934</v>
       </c>
       <c r="R13" t="n">
-        <v>7110957</v>
+        <v>7111130</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1872,6 +1867,11 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -1888,32 +1888,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103618179</v>
+        <v>103618175</v>
       </c>
       <c r="B14" t="n">
-        <v>91263</v>
+        <v>92539</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>4365</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>676934</v>
+        <v>677007</v>
       </c>
       <c r="R14" t="n">
-        <v>7111130</v>
+        <v>7111327</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2688,32 +2688,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>103618193</v>
+        <v>103618188</v>
       </c>
       <c r="B22" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>676979</v>
+        <v>676971</v>
       </c>
       <c r="R22" t="n">
-        <v>7111017</v>
+        <v>7111054</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2769,11 +2769,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>tallåga</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2790,32 +2785,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>103618186</v>
+        <v>103618193</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2825,10 +2820,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>676959</v>
+        <v>676979</v>
       </c>
       <c r="R23" t="n">
-        <v>7111121</v>
+        <v>7111017</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2871,6 +2866,11 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>tallåga</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>103618188</v>
+        <v>103618186</v>
       </c>
       <c r="B24" t="n">
         <v>78980</v>
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>676971</v>
+        <v>676959</v>
       </c>
       <c r="R24" t="n">
-        <v>7111054</v>
+        <v>7111121</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2984,45 +2984,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>103618159</v>
+        <v>84766646</v>
       </c>
       <c r="B25" t="n">
-        <v>78980</v>
+        <v>79987</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Yttersjön, Ås lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>677167</v>
+        <v>676015</v>
       </c>
       <c r="R25" t="n">
-        <v>7111508</v>
+        <v>7111072</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3049,12 +3049,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3069,57 +3069,57 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84766646</v>
+        <v>103618159</v>
       </c>
       <c r="B26" t="n">
-        <v>79987</v>
+        <v>78980</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Yttersjön, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>676015</v>
+        <v>677167</v>
       </c>
       <c r="R26" t="n">
-        <v>7111072</v>
+        <v>7111508</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3146,12 +3146,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3166,22 +3166,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson, Aron Dynesius</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>103618203</v>
+        <v>103618167</v>
       </c>
       <c r="B27" t="n">
-        <v>92551</v>
+        <v>78980</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3189,21 +3189,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>677034</v>
+        <v>677077</v>
       </c>
       <c r="R27" t="n">
-        <v>7110861</v>
+        <v>7111446</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103618167</v>
+        <v>103618017</v>
       </c>
       <c r="B28" t="n">
         <v>78980</v>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>677077</v>
+        <v>677101</v>
       </c>
       <c r="R28" t="n">
-        <v>7111446</v>
+        <v>7110870</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3372,10 +3372,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>103618017</v>
+        <v>103618203</v>
       </c>
       <c r="B29" t="n">
-        <v>78980</v>
+        <v>92551</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3383,21 +3383,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>677101</v>
+        <v>677034</v>
       </c>
       <c r="R29" t="n">
-        <v>7110870</v>
+        <v>7110861</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3469,10 +3469,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112605592</v>
+        <v>103618170</v>
       </c>
       <c r="B30" t="n">
-        <v>92571</v>
+        <v>78980</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3480,34 +3480,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>676909</v>
+        <v>677071</v>
       </c>
       <c r="R30" t="n">
-        <v>7111461</v>
+        <v>7111398</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3534,17 +3534,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3559,22 +3554,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>103618016</v>
+        <v>103618189</v>
       </c>
       <c r="B31" t="n">
-        <v>57657</v>
+        <v>78980</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3582,39 +3577,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>677102</v>
+        <v>676976</v>
       </c>
       <c r="R31" t="n">
-        <v>7110869</v>
+        <v>7111034</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3649,11 +3639,6 @@
           <t>2022-09-17</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
@@ -3662,11 +3647,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -3785,10 +3765,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>103618170</v>
+        <v>103618016</v>
       </c>
       <c r="B33" t="n">
-        <v>78980</v>
+        <v>57657</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3796,34 +3776,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>677071</v>
+        <v>677102</v>
       </c>
       <c r="R33" t="n">
-        <v>7111398</v>
+        <v>7110869</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3858,6 +3843,11 @@
           <t>2022-09-17</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -3866,6 +3856,11 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -3882,10 +3877,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>103618189</v>
+        <v>112605592</v>
       </c>
       <c r="B34" t="n">
-        <v>78980</v>
+        <v>92571</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3893,34 +3888,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>676976</v>
+        <v>676909</v>
       </c>
       <c r="R34" t="n">
-        <v>7111034</v>
+        <v>7111461</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3947,12 +3942,17 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -3967,44 +3967,44 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>103618166</v>
+        <v>103618200</v>
       </c>
       <c r="B35" t="n">
-        <v>78980</v>
+        <v>90001</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6276</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>677091</v>
+        <v>677019</v>
       </c>
       <c r="R35" t="n">
-        <v>7111471</v>
+        <v>7110882</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4076,32 +4076,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>103618200</v>
+        <v>103618166</v>
       </c>
       <c r="B36" t="n">
-        <v>90001</v>
+        <v>78980</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6276</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4111,10 +4111,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>677019</v>
+        <v>677091</v>
       </c>
       <c r="R36" t="n">
-        <v>7110882</v>
+        <v>7111471</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4760,10 +4760,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>103618197</v>
+        <v>103618158</v>
       </c>
       <c r="B43" t="n">
-        <v>92535</v>
+        <v>98382</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4771,21 +4771,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>221952</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4795,10 +4795,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>676997</v>
+        <v>677168</v>
       </c>
       <c r="R43" t="n">
-        <v>7110951</v>
+        <v>7111509</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>103618158</v>
+        <v>103618197</v>
       </c>
       <c r="B44" t="n">
-        <v>98382</v>
+        <v>92535</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4868,21 +4868,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221952</v>
+        <v>4364</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4892,10 +4892,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>677168</v>
+        <v>676997</v>
       </c>
       <c r="R44" t="n">
-        <v>7111509</v>
+        <v>7110951</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15371640</v>
+        <v>60175892</v>
       </c>
       <c r="B45" t="n">
-        <v>30266</v>
+        <v>19902</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4965,21 +4965,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100840</v>
+        <v>102001</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tallvägstekel</t>
+          <t>Urskogsvedfluga</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Deuteragenia vechti</t>
+          <t>Xylophagus kowarzi</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Day, 1979)</t>
+          <t>(Pleske, 1925)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4987,34 +4987,28 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>hane</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Käringberget, Ås lm</t>
+          <t>Lögdeälven rasbrant vid Bäverhydda, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>676708</v>
+        <v>676894</v>
       </c>
       <c r="R45" t="n">
-        <v>7111467</v>
+        <v>7110878</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5038,27 +5032,17 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2012-06-01</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2016-06-13</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2012-08-01</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2016-06-13</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Sveaskog 19</t>
+          <t>Sydlänt rasbrant med stora mängder död ved av asp och björk.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5085,10 +5069,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>60175892</v>
+        <v>15371640</v>
       </c>
       <c r="B46" t="n">
-        <v>19902</v>
+        <v>30266</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5096,21 +5080,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102001</v>
+        <v>100840</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Urskogsvedfluga</t>
+          <t>Tallvägstekel</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Xylophagus kowarzi</t>
+          <t>Deuteragenia vechti</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Pleske, 1925)</t>
+          <t>(Day, 1979)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5118,28 +5102,34 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>hane</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Lögdeälven rasbrant vid Bäverhydda, Ås lm</t>
+          <t>Käringberget, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>676894</v>
+        <v>676708</v>
       </c>
       <c r="R46" t="n">
-        <v>7110878</v>
+        <v>7111467</v>
       </c>
       <c r="S46" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5163,17 +5153,27 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2016-06-13</t>
+          <t>2012-06-01</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2016-06-13</t>
+          <t>2012-08-01</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>Sydlänt rasbrant med stora mängder död ved av asp och björk.</t>
+          <t>Sveaskog 19</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5200,10 +5200,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112605593</v>
+        <v>103618160</v>
       </c>
       <c r="B47" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5211,34 +5211,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>676808</v>
+        <v>677135</v>
       </c>
       <c r="R47" t="n">
-        <v>7111580</v>
+        <v>7111507</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5265,17 +5265,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5290,57 +5285,57 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112605591</v>
+        <v>103618187</v>
       </c>
       <c r="B48" t="n">
-        <v>92547</v>
+        <v>78980</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Fredrika, Ås lm</t>
+          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>676654</v>
+        <v>676978</v>
       </c>
       <c r="R48" t="n">
-        <v>7111614</v>
+        <v>7111086</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5367,17 +5362,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5392,12 +5382,12 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Andreas Garpebring, Carl Jansson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
@@ -5506,50 +5496,45 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>103618022</v>
+        <v>103618164</v>
       </c>
       <c r="B50" t="n">
-        <v>8436</v>
+        <v>78980</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>106554</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>677240</v>
+        <v>677114</v>
       </c>
       <c r="R50" t="n">
-        <v>7110881</v>
+        <v>7111487</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5592,11 +5577,6 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>död björl</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -5613,45 +5593,50 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>103618160</v>
+        <v>103618022</v>
       </c>
       <c r="B51" t="n">
-        <v>78980</v>
+        <v>8436</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>106554</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>677135</v>
+        <v>677240</v>
       </c>
       <c r="R51" t="n">
-        <v>7111507</v>
+        <v>7110881</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5694,6 +5679,11 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>död björl</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -5710,45 +5700,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>103618187</v>
+        <v>112605591</v>
       </c>
       <c r="B52" t="n">
-        <v>78980</v>
+        <v>92547</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>676978</v>
+        <v>676654</v>
       </c>
       <c r="R52" t="n">
-        <v>7111086</v>
+        <v>7111614</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5775,12 +5765,17 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5795,22 +5790,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>103618164</v>
+        <v>112605593</v>
       </c>
       <c r="B53" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5818,34 +5813,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Käringbergets S-sluttningar, Käringbergets EP, Ås lm</t>
+          <t>Fredrika, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>677114</v>
+        <v>676808</v>
       </c>
       <c r="R53" t="n">
-        <v>7111487</v>
+        <v>7111580</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5872,12 +5867,17 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5892,12 +5892,12 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Andreas Garpebring, Carl Jansson</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
